--- a/mentor_mentee_matches_test.xlsx
+++ b/mentor_mentee_matches_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,82 +466,107 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>match_1_summary</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>match_2_mentor_id</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>match_2_mentor_name</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>match_2_score</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>match_2_semantic_similarity</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>match_2_summary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>match_3_mentor_id</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>match_3_mentor_name</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>match_3_score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>match_3_semantic_similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>match_3_summary</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>match_4_mentor_id</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>match_4_mentor_name</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>match_4_score</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>match_4_semantic_similarity</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>match_4_summary</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>match_5_mentor_id</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>match_5_mentor_name</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>match_5_score</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>match_5_semantic_similarity</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>match_5_summary</t>
         </is>
       </c>
     </row>
@@ -574,67 +599,92 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Semantic similarity: 0.69; One prefers same network: Amentum Black Excellence Network; Competency match: mentee seeks Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>000198101</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Paul Louw</t>
         </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.7346000075340271</v>
       </c>
       <c r="J2" t="n">
         <v>0.7346000075340271</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" t="n">
+        <v>0.7346000075340271</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.73; Competency match: mentee seeks Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;, mentor offers Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>329149</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Dan Ourada</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>0.727400004863739</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>0.6773999929428101</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.68; One prefers same network: Amentum Black Excellence Network; Competency match: mentee seeks Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>M000155980</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Ian Pratt</t>
         </is>
       </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
         <v>0.6881999969482422</v>
       </c>
-      <c r="R2" t="n">
+      <c r="U2" t="n">
         <v>0.6881999969482422</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.69; Competency match: mentee seeks Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>M50751</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>Cyndi Russell</t>
         </is>
       </c>
-      <c r="U2" t="n">
+      <c r="Y2" t="n">
         <v>0.6014999747276306</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Z2" t="n">
         <v>0.5515000224113464</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.55; One prefers same network: Amentum Black Excellence Network; Competency match: mentee seeks Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -666,67 +716,92 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Semantic similarity: 0.90; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>329149</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Dan Ourada</t>
         </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0.8934999704360962</v>
       </c>
       <c r="J3" t="n">
         <v>0.8934999704360962</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" t="n">
+        <v>0.8934999704360962</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.89; Common networks: NextGen Network; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>M000155980</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Ian Pratt</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.8629000186920166</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>0.8629000186920166</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.86; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>000198101</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Paul Louw</t>
         </is>
       </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
         <v>0.8166000247001648</v>
       </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>0.8166000247001648</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.82; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>534980</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>Tracy Katsaris</t>
         </is>
       </c>
-      <c r="U3" t="n">
+      <c r="Y3" t="n">
         <v>0.7322999835014343</v>
       </c>
-      <c r="V3" t="n">
+      <c r="Z3" t="n">
         <v>0.6323000192642212</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.63; Meeting cadence match: Bi-weekly;Monthly;; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -758,67 +833,92 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Semantic similarity: 0.89; Common networks: Hispanic Network, Veteran and Military Supporters Network; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>MB00026161</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Clare Eagle</t>
         </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0.8912000060081482</v>
       </c>
       <c r="J4" t="n">
         <v>0.8912000060081482</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" t="n">
+        <v>0.8912000060081482</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.89; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>M000155980</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Ian Pratt</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>0.876800000667572</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>0.876800000667572</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.88; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>000198101</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Paul Louw</t>
         </is>
       </c>
-      <c r="Q4" t="n">
+      <c r="T4" t="n">
         <v>0.8353999853134155</v>
       </c>
-      <c r="R4" t="n">
+      <c r="U4" t="n">
         <v>0.8353999853134155</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.84; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>384385</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>Haley Doran</t>
         </is>
       </c>
-      <c r="U4" t="n">
+      <c r="Y4" t="n">
         <v>0.6934000253677368</v>
       </c>
-      <c r="V4" t="n">
+      <c r="Z4" t="n">
         <v>0.6934000253677368</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.69; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -850,67 +950,92 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>Semantic similarity: 0.69; Meeting cadence match: Bi-weekly;Monthly;; Competency match: mentee seeks Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;, mentor offers Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>M82370</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Lucy Halatyn (DiGregorio)</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.6873000264167786</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.5873000025749207</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.59; Meeting cadence match: Bi-weekly;Monthly;; Common networks: Veteran and Military Supporters Network; Competency match: mentee seeks Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;, mentor offers Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>329149</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Dan Ourada</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>0.6790000200271606</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>0.6790000200271606</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.68; Common networks: Veteran and Military Supporters Network, Careers Network; Competency match: mentee seeks Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>MB00026161</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Clare Eagle</t>
         </is>
       </c>
-      <c r="Q5" t="n">
+      <c r="T5" t="n">
         <v>0.6514999866485596</v>
       </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
         <v>0.6514999866485596</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.65; Common networks: Careers Network; Competency match: mentee seeks Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
         <is>
           <t>M000155980</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>Ian Pratt</t>
         </is>
       </c>
-      <c r="U5" t="n">
+      <c r="Y5" t="n">
         <v>0.5989000201225281</v>
       </c>
-      <c r="V5" t="n">
+      <c r="Z5" t="n">
         <v>0.5989000201225281</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.60; Competency match: mentee seeks Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -942,67 +1067,92 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>Semantic similarity: 0.70; One prefers same network: NextGen Network; Competency match: mentee seeks Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>MB00026161</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Clare Eagle</t>
         </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0.7228000164031982</v>
       </c>
       <c r="J6" t="n">
         <v>0.7228000164031982</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" t="n">
+        <v>0.7228000164031982</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.72; Competency match: mentee seeks Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>000198101</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Paul Louw</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>0.6712999939918518</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>0.6712999939918518</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.67; Competency match: mentee seeks Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;, mentor offers Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>M000155980</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Ian Pratt</t>
         </is>
       </c>
-      <c r="Q6" t="n">
+      <c r="T6" t="n">
         <v>0.656000018119812</v>
       </c>
-      <c r="R6" t="n">
+      <c r="U6" t="n">
         <v>0.656000018119812</v>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.66; Competency match: mentee seeks Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
         <is>
           <t>384385</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>Haley Doran</t>
         </is>
       </c>
-      <c r="U6" t="n">
+      <c r="Y6" t="n">
         <v>0.5582000017166138</v>
       </c>
-      <c r="V6" t="n">
+      <c r="Z6" t="n">
         <v>0.5582000017166138</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.56; Competency match: mentee seeks Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;, mentor offers Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1034,67 +1184,92 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>Semantic similarity: 0.88; Meeting cadence match: Bi-weekly;; Common networks: NextGen Network, Amentum Black Excellence Network; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>MB00026161</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Clare Eagle</t>
         </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0.8981000185012817</v>
       </c>
       <c r="J7" t="n">
         <v>0.8981000185012817</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" t="n">
+        <v>0.8981000185012817</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.90; Common networks: Amentum Black Excellence Network; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>M000155980</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>Ian Pratt</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>0.8826000094413757</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>0.8826000094413757</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.88; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>000198101</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>Paul Louw</t>
         </is>
       </c>
-      <c r="Q7" t="n">
+      <c r="T7" t="n">
         <v>0.8450999855995178</v>
       </c>
-      <c r="R7" t="n">
+      <c r="U7" t="n">
         <v>0.8450999855995178</v>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.85; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;, mentor offers Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
         <is>
           <t>384385</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>Haley Doran</t>
         </is>
       </c>
-      <c r="U7" t="n">
+      <c r="Y7" t="n">
         <v>0.6991000175476074</v>
       </c>
-      <c r="V7" t="n">
+      <c r="Z7" t="n">
         <v>0.6991000175476074</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.70; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;, mentor offers Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1126,67 +1301,92 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>Semantic similarity: 0.90; Common networks: NextGen Network, Amentum Black Excellence Network; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>MB00026161</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Clare Eagle</t>
         </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0.8646000027656555</v>
       </c>
       <c r="J8" t="n">
         <v>0.8646000027656555</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" t="n">
+        <v>0.8646000027656555</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.86; Common networks: Amentum Black Excellence Network; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>M000155980</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>Ian Pratt</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.8611000180244446</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0.8611000180244446</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.86; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>000198101</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Paul Louw</t>
         </is>
       </c>
-      <c r="Q8" t="n">
+      <c r="T8" t="n">
         <v>0.8144000172615051</v>
       </c>
-      <c r="R8" t="n">
+      <c r="U8" t="n">
         <v>0.8144000172615051</v>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.81; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>384385</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>Haley Doran</t>
         </is>
       </c>
-      <c r="U8" t="n">
+      <c r="Y8" t="n">
         <v>0.6668999791145325</v>
       </c>
-      <c r="V8" t="n">
+      <c r="Z8" t="n">
         <v>0.6668999791145325</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.67; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1218,67 +1418,92 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>Semantic similarity: 0.89; Common networks: NextGen Network, Amentum Black Excellence Network; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>MB00026161</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Clare Eagle</t>
         </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0.8822000026702881</v>
       </c>
       <c r="J9" t="n">
         <v>0.8822000026702881</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" t="n">
+        <v>0.8822000026702881</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.88; Common networks: Amentum Black Excellence Network; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>M000155980</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>Ian Pratt</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.8525999784469604</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.8525999784469604</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.85; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>000198101</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Paul Louw</t>
         </is>
       </c>
-      <c r="Q9" t="n">
+      <c r="T9" t="n">
         <v>0.8234000205993652</v>
       </c>
-      <c r="R9" t="n">
+      <c r="U9" t="n">
         <v>0.8234000205993652</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.82; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t>534980</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>Tracy Katsaris</t>
         </is>
       </c>
-      <c r="U9" t="n">
+      <c r="Y9" t="n">
         <v>0.7441999912261963</v>
       </c>
-      <c r="V9" t="n">
+      <c r="Z9" t="n">
         <v>0.6442000269889832</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.64; Meeting cadence match: Bi-weekly;Monthly;; Competency match: mentee seeks Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;, mentor offers Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1310,67 +1535,92 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>Semantic similarity: 0.64; Meeting cadence match: Bi-weekly;; Competency match: mentee seeks Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>M000155980</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Ian Pratt</t>
         </is>
-      </c>
-      <c r="I10" t="n">
-        <v>0.6794000267982483</v>
       </c>
       <c r="J10" t="n">
         <v>0.6794000267982483</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" t="n">
+        <v>0.6794000267982483</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.68; Competency match: mentee seeks Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>384385</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>Haley Doran</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.6560999751091003</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>0.6560999751091003</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.66; Competency match: mentee seeks Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;, mentor offers Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>000198101</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Paul Louw</t>
         </is>
       </c>
-      <c r="Q10" t="n">
+      <c r="T10" t="n">
         <v>0.5954999923706055</v>
       </c>
-      <c r="R10" t="n">
+      <c r="U10" t="n">
         <v>0.5954999923706055</v>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.60; Competency match: mentee seeks Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;, mentor offers Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>MB00026161</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>Clare Eagle</t>
         </is>
       </c>
-      <c r="U10" t="n">
+      <c r="Y10" t="n">
         <v>0.5830000042915344</v>
       </c>
-      <c r="V10" t="n">
+      <c r="Z10" t="n">
         <v>0.5830000042915344</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Semantic similarity: 0.58; Competency match: mentee seeks Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;, mentor offers Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
       </c>
     </row>
   </sheetData>
